--- a/box.xlsx
+++ b/box.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="609">
   <si>
     <t>資料來源</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>33.pdf</t>
-  </si>
-  <si>
-    <t>35.html</t>
   </si>
   <si>
     <t>西班牙</t>
@@ -2259,13 +2256,13 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H2">
         <v>41</v>
@@ -2297,13 +2294,13 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2335,13 +2332,13 @@
         <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -2373,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H5">
         <v>101</v>
@@ -2411,13 +2408,13 @@
         <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -2449,13 +2446,13 @@
         <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -2487,13 +2484,13 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H8">
         <v>32</v>
@@ -2525,13 +2522,13 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H9">
         <v>32</v>
@@ -2563,13 +2560,13 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H10">
         <v>40</v>
@@ -2601,13 +2598,13 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H11">
         <v>19</v>
@@ -2639,13 +2636,13 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H12">
         <v>14</v>
@@ -2677,13 +2674,13 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H13">
         <v>16</v>
@@ -2715,13 +2712,13 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -2753,13 +2750,13 @@
         <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2791,13 +2788,13 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H16">
         <v>38</v>
@@ -2829,13 +2826,13 @@
         <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H17">
         <v>14</v>
@@ -2867,13 +2864,13 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H18">
         <v>27</v>
@@ -2905,13 +2902,13 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H19">
         <v>69</v>
@@ -2943,13 +2940,13 @@
         <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2981,13 +2978,13 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H21">
         <v>71</v>
@@ -3019,13 +3016,13 @@
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H22">
         <v>16</v>
@@ -3057,13 +3054,13 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H23">
         <v>27</v>
@@ -3095,13 +3092,13 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -3133,13 +3130,13 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -3171,13 +3168,13 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H26">
         <v>14</v>
@@ -3209,13 +3206,13 @@
         <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H27">
         <v>14</v>
@@ -3247,13 +3244,13 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H28">
         <v>38</v>
@@ -3285,13 +3282,13 @@
         <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H29">
         <v>25</v>
@@ -3323,13 +3320,13 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H30">
         <v>61</v>
@@ -3361,13 +3358,13 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H31">
         <v>14</v>
@@ -3399,13 +3396,13 @@
         <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H32">
         <v>7</v>
@@ -3437,13 +3434,13 @@
         <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H33">
         <v>21</v>
@@ -3475,13 +3472,13 @@
         <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H34">
         <v>14</v>
@@ -3513,13 +3510,13 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H35">
         <v>33</v>
@@ -3551,13 +3548,13 @@
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3589,13 +3586,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H37">
         <v>15</v>
@@ -3627,13 +3624,13 @@
         <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H38">
         <v>63</v>
@@ -3665,13 +3662,13 @@
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H39">
         <v>28</v>
@@ -3703,13 +3700,13 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H40">
         <v>14</v>
@@ -3741,13 +3738,13 @@
         <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H41">
         <v>7</v>
@@ -3779,13 +3776,13 @@
         <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H42">
         <v>7</v>
@@ -3817,13 +3814,13 @@
         <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H43">
         <v>26</v>
@@ -3855,13 +3852,13 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H44">
         <v>70</v>
@@ -3893,13 +3890,13 @@
         <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H45">
         <v>65</v>
@@ -3931,13 +3928,13 @@
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H46">
         <v>56</v>
@@ -3969,13 +3966,13 @@
         <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H47">
         <v>27</v>
@@ -4007,13 +4004,13 @@
         <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H48">
         <v>42</v>
@@ -4045,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H49">
         <v>13</v>
@@ -4083,13 +4080,13 @@
         <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H50">
         <v>26</v>
@@ -4121,13 +4118,13 @@
         <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H51">
         <v>24</v>
@@ -4159,13 +4156,13 @@
         <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H52">
         <v>13</v>
@@ -4197,13 +4194,13 @@
         <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H53">
         <v>33</v>
@@ -4235,13 +4232,13 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H54">
         <v>90</v>
@@ -4273,13 +4270,13 @@
         <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G55" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H55">
         <v>21</v>
@@ -4311,13 +4308,13 @@
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H56">
         <v>48</v>
@@ -4349,13 +4346,13 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H57">
         <v>116</v>
@@ -4387,13 +4384,13 @@
         <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H58">
         <v>11</v>
@@ -4425,13 +4422,13 @@
         <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H59">
         <v>39</v>
@@ -4463,13 +4460,13 @@
         <v>83</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G60" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H60">
         <v>21</v>
@@ -4501,13 +4498,13 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H61">
         <v>79</v>
@@ -4539,13 +4536,13 @@
         <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G62" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H62">
         <v>26</v>
@@ -4577,13 +4574,13 @@
         <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H63">
         <v>47</v>
@@ -4615,13 +4612,13 @@
         <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H64">
         <v>41</v>
@@ -4653,13 +4650,13 @@
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H65">
         <v>21</v>
@@ -4691,13 +4688,13 @@
         <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G66" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H66">
         <v>15</v>
@@ -4729,13 +4726,13 @@
         <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H67">
         <v>29</v>
@@ -4767,13 +4764,13 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H68">
         <v>36</v>
@@ -4805,13 +4802,13 @@
         <v>130</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -4843,13 +4840,13 @@
         <v>64</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -4881,13 +4878,13 @@
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H71">
         <v>19</v>
@@ -4919,13 +4916,13 @@
         <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H72">
         <v>48</v>
@@ -4957,13 +4954,13 @@
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H73">
         <v>50</v>
@@ -4995,13 +4992,13 @@
         <v>108</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G74" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H74">
         <v>14</v>
@@ -5033,13 +5030,13 @@
         <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G75" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H75">
         <v>30</v>
@@ -5071,13 +5068,13 @@
         <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H76">
         <v>48</v>
@@ -5109,13 +5106,13 @@
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G77" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H77">
         <v>21</v>
@@ -5147,13 +5144,13 @@
         <v>62</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H78">
         <v>27</v>
@@ -5185,13 +5182,13 @@
         <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G79" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H79">
         <v>52</v>
@@ -5223,13 +5220,13 @@
         <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G80" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H80">
         <v>49</v>
@@ -5261,13 +5258,13 @@
         <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G81" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H81">
         <v>35</v>
@@ -5299,13 +5296,13 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G82" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H82">
         <v>97</v>
@@ -5337,13 +5334,13 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H83">
         <v>68</v>
@@ -5375,13 +5372,13 @@
         <v>74</v>
       </c>
       <c r="E84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H84">
         <v>14</v>
@@ -5413,13 +5410,13 @@
         <v>61</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G85" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H85">
         <v>20</v>
@@ -5451,13 +5448,13 @@
         <v>104</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H86">
         <v>14</v>
@@ -5489,13 +5486,13 @@
         <v>68</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G87" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H87">
         <v>28</v>
@@ -5527,13 +5524,13 @@
         <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G88" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H88">
         <v>76</v>
@@ -5565,13 +5562,13 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G89" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H89">
         <v>28</v>
@@ -5603,13 +5600,13 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G90" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H90">
         <v>14</v>
@@ -5641,13 +5638,13 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G91" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H91">
         <v>52</v>
@@ -5679,13 +5676,13 @@
         <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G92" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H92">
         <v>25</v>
@@ -5717,13 +5714,13 @@
         <v>84</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G93" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H93">
         <v>12</v>
@@ -5755,13 +5752,13 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G94" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -5793,13 +5790,13 @@
         <v>46</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G95" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H95">
         <v>11</v>
@@ -5831,13 +5828,13 @@
         <v>58</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G96" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H96">
         <v>21</v>
@@ -5869,13 +5866,13 @@
         <v>116</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H97">
         <v>12</v>
@@ -5907,13 +5904,13 @@
         <v>65</v>
       </c>
       <c r="E98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G98" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -5945,13 +5942,13 @@
         <v>85</v>
       </c>
       <c r="E99" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H99">
         <v>16</v>
@@ -5983,13 +5980,13 @@
         <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G100" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H100">
         <v>57</v>
@@ -6021,13 +6018,13 @@
         <v>119</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G101" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -6059,13 +6056,13 @@
         <v>93</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G102" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H102">
         <v>42</v>
@@ -6097,13 +6094,13 @@
         <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H103">
         <v>35</v>
@@ -6135,13 +6132,13 @@
         <v>51</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G104" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H104">
         <v>34</v>
@@ -6173,13 +6170,13 @@
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G105" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H105">
         <v>57</v>
@@ -6211,13 +6208,13 @@
         <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G106" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H106">
         <v>10</v>
@@ -6249,13 +6246,13 @@
         <v>38</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H107">
         <v>10</v>
@@ -6287,13 +6284,13 @@
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G108" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H108">
         <v>57</v>
@@ -6325,13 +6322,13 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G109" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H109">
         <v>73</v>
@@ -6363,13 +6360,13 @@
         <v>121</v>
       </c>
       <c r="E110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G110" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -6401,13 +6398,13 @@
         <v>47</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G111" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H111">
         <v>23</v>
@@ -6439,13 +6436,13 @@
         <v>67</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G112" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H112">
         <v>15</v>
@@ -6477,13 +6474,13 @@
         <v>46</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G113" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -6515,13 +6512,13 @@
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G114" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H114">
         <v>95</v>
@@ -6553,13 +6550,13 @@
         <v>88</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H115">
         <v>14</v>
@@ -6591,13 +6588,13 @@
         <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G116" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H116">
         <v>21</v>
@@ -6629,13 +6626,13 @@
         <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G117" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H117">
         <v>81</v>
@@ -6667,13 +6664,13 @@
         <v>61</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G118" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -6705,13 +6702,13 @@
         <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G119" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H119">
         <v>14</v>
@@ -6743,13 +6740,13 @@
         <v>8</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G120" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H120">
         <v>64</v>
@@ -6781,13 +6778,13 @@
         <v>57</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G121" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H121">
         <v>43</v>
@@ -6819,13 +6816,13 @@
         <v>59</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G122" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H122">
         <v>28</v>
@@ -6857,13 +6854,13 @@
         <v>33</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G123" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H123">
         <v>10</v>
@@ -6895,13 +6892,13 @@
         <v>105</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G124" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H124">
         <v>24</v>
@@ -6933,13 +6930,13 @@
         <v>33</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G125" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H125">
         <v>51</v>
@@ -6971,13 +6968,13 @@
         <v>20</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G126" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H126">
         <v>86</v>
@@ -7009,13 +7006,13 @@
         <v>47</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G127" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -7047,13 +7044,13 @@
         <v>61</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G128" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -7085,13 +7082,13 @@
         <v>103</v>
       </c>
       <c r="E129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G129" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H129">
         <v>7</v>
@@ -7123,13 +7120,13 @@
         <v>41</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G130" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H130">
         <v>38</v>
@@ -7161,13 +7158,13 @@
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G131" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H131">
         <v>82</v>
@@ -7199,13 +7196,13 @@
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G132" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H132">
         <v>42</v>
@@ -7237,13 +7234,13 @@
         <v>127</v>
       </c>
       <c r="E133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F133" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G133" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -7275,13 +7272,13 @@
         <v>94</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H134">
         <v>24</v>
@@ -7313,13 +7310,13 @@
         <v>95</v>
       </c>
       <c r="E135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G135" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H135">
         <v>22</v>
@@ -7351,13 +7348,13 @@
         <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G136" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H136">
         <v>125</v>
@@ -7389,13 +7386,13 @@
         <v>92</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G137" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H137">
         <v>21</v>
@@ -7427,13 +7424,13 @@
         <v>29</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G138" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H138">
         <v>10</v>
@@ -7465,13 +7462,13 @@
         <v>99</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G139" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -7503,13 +7500,13 @@
         <v>47</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G140" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H140">
         <v>35</v>
@@ -7541,13 +7538,13 @@
         <v>22</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G141" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H141">
         <v>25</v>
@@ -7579,13 +7576,13 @@
         <v>90</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G142" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H142">
         <v>14</v>
@@ -7617,13 +7614,13 @@
         <v>21</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G143" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H143">
         <v>84</v>
@@ -7655,13 +7652,13 @@
         <v>106</v>
       </c>
       <c r="E144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G144" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H144">
         <v>35</v>
@@ -7693,13 +7690,13 @@
         <v>85</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G145" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H145">
         <v>38</v>
@@ -7731,13 +7728,13 @@
         <v>57</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G146" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -7769,13 +7766,13 @@
         <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G147" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H147">
         <v>35</v>
@@ -7807,13 +7804,13 @@
         <v>86</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G148" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H148">
         <v>14</v>
@@ -7845,13 +7842,13 @@
         <v>57</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G149" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H149">
         <v>43</v>
@@ -7883,13 +7880,13 @@
         <v>58</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G150" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -7921,13 +7918,13 @@
         <v>74</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G151" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -7959,13 +7956,13 @@
         <v>39</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G152" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -7997,13 +7994,13 @@
         <v>83</v>
       </c>
       <c r="E153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F153" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G153" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H153">
         <v>35</v>
@@ -8035,13 +8032,13 @@
         <v>44</v>
       </c>
       <c r="E154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G154" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H154">
         <v>48</v>
@@ -8073,13 +8070,13 @@
         <v>40</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G155" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H155">
         <v>63</v>
@@ -8111,13 +8108,13 @@
         <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G156" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H156">
         <v>47</v>
@@ -8149,13 +8146,13 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G157" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H157">
         <v>64</v>
@@ -8187,13 +8184,13 @@
         <v>57</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G158" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H158">
         <v>8</v>
@@ -8225,13 +8222,13 @@
         <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G159" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H159">
         <v>52</v>
@@ -8263,13 +8260,13 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G160" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H160">
         <v>141</v>
@@ -8301,13 +8298,13 @@
         <v>111</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G161" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H161">
         <v>23</v>
@@ -8339,13 +8336,13 @@
         <v>48</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G162" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H162">
         <v>5</v>
@@ -8377,13 +8374,13 @@
         <v>50</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G163" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H163">
         <v>13</v>
@@ -8415,13 +8412,13 @@
         <v>78</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G164" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -8453,13 +8450,13 @@
         <v>91</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H165">
         <v>7</v>
@@ -8491,13 +8488,13 @@
         <v>84</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G166" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H166">
         <v>19</v>
@@ -8529,13 +8526,13 @@
         <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G167" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H167">
         <v>92</v>
@@ -8567,13 +8564,13 @@
         <v>58</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G168" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H168">
         <v>35</v>
@@ -8605,13 +8602,13 @@
         <v>16</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G169" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H169">
         <v>45</v>
@@ -8643,13 +8640,13 @@
         <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G170" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H170">
         <v>62</v>
@@ -8681,13 +8678,13 @@
         <v>47</v>
       </c>
       <c r="E171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F171" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G171" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -8719,13 +8716,13 @@
         <v>68</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G172" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H172">
         <v>37</v>
@@ -8757,13 +8754,13 @@
         <v>79</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F173" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G173" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H173">
         <v>15</v>
@@ -8795,13 +8792,13 @@
         <v>44</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G174" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H174">
         <v>43</v>
@@ -8833,13 +8830,13 @@
         <v>26</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G175" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H175">
         <v>79</v>
@@ -8871,13 +8868,13 @@
         <v>53</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G176" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H176">
         <v>45</v>
@@ -8909,13 +8906,13 @@
         <v>90</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G177" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H177">
         <v>14</v>
@@ -8947,13 +8944,13 @@
         <v>34</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G178" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H178">
         <v>29</v>
@@ -8985,13 +8982,13 @@
         <v>87</v>
       </c>
       <c r="E179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F179" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G179" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H179">
         <v>14</v>
@@ -9023,13 +9020,13 @@
         <v>66</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F180" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G180" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H180">
         <v>14</v>
@@ -9061,13 +9058,13 @@
         <v>55</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F181" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G181" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H181">
         <v>14</v>
@@ -9099,13 +9096,13 @@
         <v>92</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G182" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H182">
         <v>7</v>
@@ -9137,13 +9134,13 @@
         <v>79</v>
       </c>
       <c r="E183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G183" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H183">
         <v>38</v>
@@ -9175,13 +9172,13 @@
         <v>82</v>
       </c>
       <c r="E184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G184" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H184">
         <v>25</v>
@@ -9213,13 +9210,13 @@
         <v>37</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G185" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H185">
         <v>29</v>
@@ -9251,13 +9248,13 @@
         <v>63</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G186" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -9289,13 +9286,13 @@
         <v>18</v>
       </c>
       <c r="E187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F187" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G187" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H187">
         <v>14</v>
@@ -9327,13 +9324,13 @@
         <v>13</v>
       </c>
       <c r="E188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F188" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G188" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H188">
         <v>127</v>
@@ -9365,13 +9362,13 @@
         <v>112</v>
       </c>
       <c r="E189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G189" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H189">
         <v>21</v>
@@ -9403,13 +9400,13 @@
         <v>29</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G190" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H190">
         <v>27</v>
@@ -9441,13 +9438,13 @@
         <v>76</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G191" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H191">
         <v>15</v>
@@ -9479,13 +9476,13 @@
         <v>43</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G192" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H192">
         <v>35</v>
@@ -9517,13 +9514,13 @@
         <v>35</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G193" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H193">
         <v>56</v>
@@ -9555,13 +9552,13 @@
         <v>108</v>
       </c>
       <c r="E194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F194" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G194" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H194">
         <v>21</v>
@@ -9593,13 +9590,13 @@
         <v>37</v>
       </c>
       <c r="E195" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F195" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G195" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H195">
         <v>51</v>
@@ -9631,13 +9628,13 @@
         <v>60</v>
       </c>
       <c r="E196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F196" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G196" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H196">
         <v>19</v>
@@ -9669,13 +9666,13 @@
         <v>24</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G197" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H197">
         <v>67</v>
@@ -9707,13 +9704,13 @@
         <v>43</v>
       </c>
       <c r="E198" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G198" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H198">
         <v>55</v>
@@ -9745,13 +9742,13 @@
         <v>86</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G199" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H199">
         <v>8</v>
@@ -9783,13 +9780,13 @@
         <v>44</v>
       </c>
       <c r="E200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G200" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H200">
         <v>5</v>
@@ -9821,13 +9818,13 @@
         <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F201" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G201" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H201">
         <v>74</v>
@@ -9859,13 +9856,13 @@
         <v>92</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F202" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G202" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H202">
         <v>42</v>
@@ -9897,13 +9894,13 @@
         <v>75</v>
       </c>
       <c r="E203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F203" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G203" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H203">
         <v>9</v>
@@ -9935,13 +9932,13 @@
         <v>78</v>
       </c>
       <c r="E204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G204" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H204">
         <v>21</v>
@@ -9973,13 +9970,13 @@
         <v>22</v>
       </c>
       <c r="E205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F205" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G205" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H205">
         <v>31</v>
@@ -10011,13 +10008,13 @@
         <v>21</v>
       </c>
       <c r="E206" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F206" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G206" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H206">
         <v>82</v>
@@ -10049,13 +10046,13 @@
         <v>24</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F207" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G207" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H207">
         <v>104</v>
@@ -10087,13 +10084,13 @@
         <v>15</v>
       </c>
       <c r="E208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F208" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G208" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H208">
         <v>77</v>
@@ -10125,13 +10122,13 @@
         <v>34</v>
       </c>
       <c r="E209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F209" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G209" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H209">
         <v>39</v>
@@ -10163,13 +10160,13 @@
         <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F210" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G210" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H210">
         <v>92</v>
@@ -10201,13 +10198,13 @@
         <v>6</v>
       </c>
       <c r="E211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F211" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G211" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H211">
         <v>60</v>
@@ -10239,13 +10236,13 @@
         <v>48</v>
       </c>
       <c r="E212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F212" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G212" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H212">
         <v>47</v>
@@ -10277,13 +10274,13 @@
         <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F213" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G213" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H213">
         <v>121</v>
@@ -10315,13 +10312,13 @@
         <v>37</v>
       </c>
       <c r="E214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G214" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H214">
         <v>27</v>
@@ -10353,13 +10350,13 @@
         <v>8</v>
       </c>
       <c r="E215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F215" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G215" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H215">
         <v>92</v>
@@ -10391,13 +10388,13 @@
         <v>26</v>
       </c>
       <c r="E216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F216" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G216" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H216">
         <v>79</v>
@@ -10429,13 +10426,13 @@
         <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F217" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H217">
         <v>97</v>
@@ -10467,13 +10464,13 @@
         <v>28</v>
       </c>
       <c r="E218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F218" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G218" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H218">
         <v>82</v>
@@ -10505,13 +10502,13 @@
         <v>104</v>
       </c>
       <c r="E219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F219" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G219" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H219">
         <v>21</v>
@@ -10543,13 +10540,13 @@
         <v>38</v>
       </c>
       <c r="E220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F220" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G220" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H220">
         <v>35</v>
@@ -10581,13 +10578,13 @@
         <v>35</v>
       </c>
       <c r="E221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G221" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H221">
         <v>23</v>
@@ -10619,13 +10616,13 @@
         <v>89</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G222" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H222">
         <v>8</v>
@@ -10657,13 +10654,13 @@
         <v>29</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F223" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G223" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H223">
         <v>40</v>
@@ -10695,13 +10692,13 @@
         <v>93</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F224" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G224" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H224">
         <v>7</v>
@@ -10733,13 +10730,13 @@
         <v>62</v>
       </c>
       <c r="E225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F225" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G225" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -10771,13 +10768,13 @@
         <v>2</v>
       </c>
       <c r="E226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F226" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G226" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H226">
         <v>102</v>
@@ -10809,13 +10806,13 @@
         <v>88</v>
       </c>
       <c r="E227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F227" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G227" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H227">
         <v>13</v>
@@ -10847,13 +10844,13 @@
         <v>8</v>
       </c>
       <c r="E228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F228" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G228" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H228">
         <v>75</v>
@@ -10885,13 +10882,13 @@
         <v>62</v>
       </c>
       <c r="E229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F229" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G229" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H229">
         <v>13</v>
@@ -10923,13 +10920,13 @@
         <v>68</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F230" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G230" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H230">
         <v>34</v>
@@ -10961,13 +10958,13 @@
         <v>25</v>
       </c>
       <c r="E231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F231" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G231" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H231">
         <v>64</v>
@@ -10999,13 +10996,13 @@
         <v>15</v>
       </c>
       <c r="E232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F232" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G232" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H232">
         <v>90</v>
@@ -11037,13 +11034,13 @@
         <v>107</v>
       </c>
       <c r="E233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F233" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G233" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H233">
         <v>7</v>
@@ -11075,13 +11072,13 @@
         <v>40</v>
       </c>
       <c r="E234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F234" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G234" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H234">
         <v>5</v>
@@ -11113,13 +11110,13 @@
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F235" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G235" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H235">
         <v>149</v>
@@ -11151,13 +11148,13 @@
         <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F236" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G236" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H236">
         <v>124</v>
@@ -11189,13 +11186,13 @@
         <v>18</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F237" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G237" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H237">
         <v>54</v>
@@ -11227,13 +11224,13 @@
         <v>34</v>
       </c>
       <c r="E238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F238" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G238" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H238">
         <v>21</v>
@@ -11265,13 +11262,13 @@
         <v>75</v>
       </c>
       <c r="E239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F239" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G239" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H239">
         <v>4</v>
@@ -11303,13 +11300,13 @@
         <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G240" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H240">
         <v>87</v>
@@ -11341,13 +11338,13 @@
         <v>61</v>
       </c>
       <c r="E241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F241" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G241" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H241">
         <v>14</v>
@@ -11379,13 +11376,13 @@
         <v>36</v>
       </c>
       <c r="E242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F242" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G242" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H242">
         <v>27</v>
@@ -11417,13 +11414,13 @@
         <v>80</v>
       </c>
       <c r="E243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F243" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G243" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -11455,13 +11452,13 @@
         <v>50</v>
       </c>
       <c r="E244" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F244" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G244" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H244">
         <v>4</v>
@@ -11493,13 +11490,13 @@
         <v>13</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F245" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G245" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H245">
         <v>54</v>
@@ -11531,13 +11528,13 @@
         <v>91</v>
       </c>
       <c r="E246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F246" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G246" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H246">
         <v>21</v>
@@ -11569,13 +11566,13 @@
         <v>17</v>
       </c>
       <c r="E247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F247" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G247" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H247">
         <v>23</v>
@@ -11607,13 +11604,13 @@
         <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F248" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G248" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H248">
         <v>114</v>
@@ -11645,13 +11642,13 @@
         <v>39</v>
       </c>
       <c r="E249" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F249" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G249" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H249">
         <v>32</v>
@@ -11683,13 +11680,13 @@
         <v>98</v>
       </c>
       <c r="E250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F250" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G250" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H250">
         <v>4</v>
@@ -11721,13 +11718,13 @@
         <v>52</v>
       </c>
       <c r="E251" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F251" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G251" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H251">
         <v>3</v>
@@ -11759,13 +11756,13 @@
         <v>4</v>
       </c>
       <c r="E252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F252" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G252" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H252">
         <v>81</v>
@@ -11797,13 +11794,13 @@
         <v>19</v>
       </c>
       <c r="E253" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F253" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G253" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H253">
         <v>84</v>
@@ -11835,13 +11832,13 @@
         <v>38</v>
       </c>
       <c r="E254" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F254" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G254" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H254">
         <v>28</v>
@@ -11873,13 +11870,13 @@
         <v>19</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F255" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G255" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H255">
         <v>6</v>
@@ -11911,13 +11908,13 @@
         <v>129</v>
       </c>
       <c r="E256" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F256" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G256" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -11949,13 +11946,13 @@
         <v>94</v>
       </c>
       <c r="E257" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F257" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G257" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H257">
         <v>36</v>
@@ -11987,13 +11984,13 @@
         <v>60</v>
       </c>
       <c r="E258" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F258" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G258" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -12025,13 +12022,13 @@
         <v>61</v>
       </c>
       <c r="E259" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F259" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G259" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H259">
         <v>27</v>
@@ -12063,13 +12060,13 @@
         <v>89</v>
       </c>
       <c r="E260" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F260" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G260" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H260">
         <v>18</v>
@@ -12101,13 +12098,13 @@
         <v>11</v>
       </c>
       <c r="E261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F261" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G261" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H261">
         <v>135</v>
@@ -12139,13 +12136,13 @@
         <v>109</v>
       </c>
       <c r="E262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F262" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G262" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H262">
         <v>40</v>
@@ -12177,13 +12174,13 @@
         <v>12</v>
       </c>
       <c r="E263" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F263" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G263" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H263">
         <v>93</v>
@@ -12215,13 +12212,13 @@
         <v>112</v>
       </c>
       <c r="E264" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F264" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G264" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H264">
         <v>28</v>
@@ -12253,13 +12250,13 @@
         <v>25</v>
       </c>
       <c r="E265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F265" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G265" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H265">
         <v>49</v>
@@ -12291,13 +12288,13 @@
         <v>104</v>
       </c>
       <c r="E266" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F266" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G266" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H266">
         <v>22</v>
@@ -12329,13 +12326,13 @@
         <v>90</v>
       </c>
       <c r="E267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F267" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G267" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H267">
         <v>7</v>
@@ -12367,13 +12364,13 @@
         <v>125</v>
       </c>
       <c r="E268" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F268" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G268" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H268">
         <v>3</v>
@@ -12405,13 +12402,13 @@
         <v>60</v>
       </c>
       <c r="E269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F269" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G269" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H269">
         <v>16</v>
@@ -12443,13 +12440,13 @@
         <v>7</v>
       </c>
       <c r="E270" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F270" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G270" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H270">
         <v>118</v>
@@ -12481,13 +12478,13 @@
         <v>49</v>
       </c>
       <c r="E271" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F271" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G271" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H271">
         <v>14</v>
@@ -12519,13 +12516,13 @@
         <v>97</v>
       </c>
       <c r="E272" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F272" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G272" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -12557,13 +12554,13 @@
         <v>22</v>
       </c>
       <c r="E273" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F273" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G273" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H273">
         <v>97</v>
@@ -12595,13 +12592,13 @@
         <v>110</v>
       </c>
       <c r="E274" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F274" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G274" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H274">
         <v>28</v>
@@ -12633,13 +12630,13 @@
         <v>1</v>
       </c>
       <c r="E275" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F275" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G275" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H275">
         <v>60</v>
@@ -12671,13 +12668,13 @@
         <v>75</v>
       </c>
       <c r="E276" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F276" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G276" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H276">
         <v>14</v>
@@ -12709,13 +12706,13 @@
         <v>62</v>
       </c>
       <c r="E277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F277" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G277" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H277">
         <v>3</v>
@@ -12747,13 +12744,13 @@
         <v>92</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F278" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G278" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H278">
         <v>2</v>
@@ -12785,13 +12782,13 @@
         <v>10</v>
       </c>
       <c r="E279" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F279" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G279" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H279">
         <v>36</v>
@@ -12823,13 +12820,13 @@
         <v>100</v>
       </c>
       <c r="E280" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F280" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G280" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H280">
         <v>3</v>
@@ -12861,13 +12858,13 @@
         <v>64</v>
       </c>
       <c r="E281" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F281" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G281" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H281">
         <v>13</v>
@@ -12899,13 +12896,13 @@
         <v>48</v>
       </c>
       <c r="E282" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F282" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G282" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H282">
         <v>22</v>
@@ -12937,13 +12934,13 @@
         <v>32</v>
       </c>
       <c r="E283" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F283" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G283" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H283">
         <v>14</v>
@@ -12975,13 +12972,13 @@
         <v>7</v>
       </c>
       <c r="E284" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F284" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G284" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H284">
         <v>85</v>
@@ -13013,13 +13010,13 @@
         <v>59</v>
       </c>
       <c r="E285" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F285" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G285" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H285">
         <v>18</v>
@@ -13051,13 +13048,13 @@
         <v>72</v>
       </c>
       <c r="E286" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F286" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G286" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H286">
         <v>21</v>
@@ -13089,13 +13086,13 @@
         <v>89</v>
       </c>
       <c r="E287" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F287" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G287" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H287">
         <v>15</v>
@@ -13127,13 +13124,13 @@
         <v>86</v>
       </c>
       <c r="E288" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F288" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G288" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H288">
         <v>26</v>
@@ -13165,13 +13162,13 @@
         <v>79</v>
       </c>
       <c r="E289" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F289" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G289" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -13203,13 +13200,13 @@
         <v>1</v>
       </c>
       <c r="E290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F290" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G290" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H290">
         <v>28</v>
@@ -13241,13 +13238,13 @@
         <v>73</v>
       </c>
       <c r="E291" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F291" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G291" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H291">
         <v>5</v>
@@ -13279,13 +13276,13 @@
         <v>6</v>
       </c>
       <c r="E292" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F292" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G292" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H292">
         <v>57</v>
@@ -13317,13 +13314,13 @@
         <v>52</v>
       </c>
       <c r="E293" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F293" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G293" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H293">
         <v>48</v>
@@ -13355,13 +13352,13 @@
         <v>21</v>
       </c>
       <c r="E294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F294" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G294" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H294">
         <v>81</v>
@@ -13393,13 +13390,13 @@
         <v>76</v>
       </c>
       <c r="E295" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F295" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G295" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H295">
         <v>12</v>
@@ -13431,13 +13428,13 @@
         <v>4</v>
       </c>
       <c r="E296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F296" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G296" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H296">
         <v>14</v>
@@ -13469,13 +13466,13 @@
         <v>40</v>
       </c>
       <c r="E297" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F297" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G297" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H297">
         <v>28</v>
@@ -13507,13 +13504,13 @@
         <v>83</v>
       </c>
       <c r="E298" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F298" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G298" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H298">
         <v>19</v>
@@ -13545,13 +13542,13 @@
         <v>107</v>
       </c>
       <c r="E299" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F299" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G299" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H299">
         <v>15</v>
@@ -13583,13 +13580,13 @@
         <v>31</v>
       </c>
       <c r="E300" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F300" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G300" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H300">
         <v>29</v>
@@ -13621,13 +13618,13 @@
         <v>38</v>
       </c>
       <c r="E301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F301" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G301" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H301">
         <v>62</v>
@@ -13659,13 +13656,13 @@
         <v>16</v>
       </c>
       <c r="E302" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F302" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G302" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H302">
         <v>102</v>
@@ -13697,13 +13694,13 @@
         <v>58</v>
       </c>
       <c r="E303" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F303" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G303" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H303">
         <v>22</v>
@@ -13735,13 +13732,13 @@
         <v>12</v>
       </c>
       <c r="E304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F304" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G304" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H304">
         <v>87</v>
@@ -13773,13 +13770,13 @@
         <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F305" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G305" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H305">
         <v>14</v>
@@ -13811,13 +13808,13 @@
         <v>27</v>
       </c>
       <c r="E306" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F306" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G306" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H306">
         <v>53</v>
@@ -13849,13 +13846,13 @@
         <v>60</v>
       </c>
       <c r="E307" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F307" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G307" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H307">
         <v>6</v>
@@ -13887,13 +13884,13 @@
         <v>32</v>
       </c>
       <c r="E308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F308" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G308" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H308">
         <v>40</v>
@@ -13925,13 +13922,13 @@
         <v>65</v>
       </c>
       <c r="E309" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F309" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G309" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H309">
         <v>20</v>
@@ -13963,13 +13960,13 @@
         <v>86</v>
       </c>
       <c r="E310" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F310" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G310" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H310">
         <v>26</v>
@@ -14001,13 +13998,13 @@
         <v>17</v>
       </c>
       <c r="E311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F311" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G311" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H311">
         <v>90</v>
@@ -14039,13 +14036,13 @@
         <v>43</v>
       </c>
       <c r="E312" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F312" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G312" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H312">
         <v>55</v>
@@ -14077,13 +14074,13 @@
         <v>63</v>
       </c>
       <c r="E313" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F313" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G313" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H313">
         <v>29</v>
@@ -14115,13 +14112,13 @@
         <v>103</v>
       </c>
       <c r="E314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F314" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G314" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H314">
         <v>36</v>
@@ -14153,13 +14150,13 @@
         <v>55</v>
       </c>
       <c r="E315" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F315" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G315" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H315">
         <v>67</v>
@@ -14191,13 +14188,13 @@
         <v>36</v>
       </c>
       <c r="E316" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F316" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G316" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H316">
         <v>63</v>
@@ -14229,13 +14226,13 @@
         <v>21</v>
       </c>
       <c r="E317" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F317" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G317" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H317">
         <v>22</v>
@@ -14267,13 +14264,13 @@
         <v>42</v>
       </c>
       <c r="E318" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F318" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G318" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H318">
         <v>50</v>
@@ -14305,13 +14302,13 @@
         <v>67</v>
       </c>
       <c r="E319" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F319" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G319" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H319">
         <v>51</v>
@@ -14343,13 +14340,13 @@
         <v>70</v>
       </c>
       <c r="E320" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F320" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G320" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H320">
         <v>21</v>
@@ -14381,13 +14378,13 @@
         <v>59</v>
       </c>
       <c r="E321" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F321" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G321" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H321">
         <v>14</v>
@@ -14419,13 +14416,13 @@
         <v>2</v>
       </c>
       <c r="E322" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F322" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G322" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H322">
         <v>35</v>
@@ -14457,13 +14454,13 @@
         <v>74</v>
       </c>
       <c r="E323" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F323" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G323" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H323">
         <v>7</v>
@@ -14495,13 +14492,13 @@
         <v>10</v>
       </c>
       <c r="E324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F324" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G324" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H324">
         <v>20</v>
@@ -14533,13 +14530,13 @@
         <v>72</v>
       </c>
       <c r="E325" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F325" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G325" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H325">
         <v>9</v>
@@ -14571,13 +14568,13 @@
         <v>22</v>
       </c>
       <c r="E326" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F326" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G326" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H326">
         <v>44</v>
@@ -14609,13 +14606,13 @@
         <v>95</v>
       </c>
       <c r="E327" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F327" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G327" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H327">
         <v>21</v>
@@ -14647,13 +14644,13 @@
         <v>56</v>
       </c>
       <c r="E328" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F328" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G328" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H328">
         <v>21</v>
@@ -14685,13 +14682,13 @@
         <v>46</v>
       </c>
       <c r="E329" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F329" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G329" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H329">
         <v>3</v>
@@ -14723,13 +14720,13 @@
         <v>126</v>
       </c>
       <c r="E330" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F330" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G330" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H330">
         <v>3</v>
@@ -14761,13 +14758,13 @@
         <v>48</v>
       </c>
       <c r="E331" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F331" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G331" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H331">
         <v>31</v>
@@ -14799,13 +14796,13 @@
         <v>39</v>
       </c>
       <c r="E332" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F332" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G332" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H332">
         <v>3</v>
@@ -14837,13 +14834,13 @@
         <v>122</v>
       </c>
       <c r="E333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F333" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G333" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H333">
         <v>3</v>
@@ -14875,13 +14872,13 @@
         <v>9</v>
       </c>
       <c r="E334" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F334" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G334" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H334">
         <v>81</v>
@@ -14913,13 +14910,13 @@
         <v>41</v>
       </c>
       <c r="E335" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F335" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G335" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H335">
         <v>34</v>
@@ -14951,13 +14948,13 @@
         <v>11</v>
       </c>
       <c r="E336" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F336" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G336" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H336">
         <v>23</v>
@@ -14989,13 +14986,13 @@
         <v>59</v>
       </c>
       <c r="E337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F337" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G337" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H337">
         <v>4</v>
@@ -15027,13 +15024,13 @@
         <v>55</v>
       </c>
       <c r="E338" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F338" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H338">
         <v>3</v>
@@ -15065,13 +15062,13 @@
         <v>85</v>
       </c>
       <c r="E339" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F339" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G339" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H339">
         <v>22</v>
@@ -15103,13 +15100,13 @@
         <v>69</v>
       </c>
       <c r="E340" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F340" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G340" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H340">
         <v>13</v>
@@ -15141,13 +15138,13 @@
         <v>32</v>
       </c>
       <c r="E341" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F341" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G341" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H341">
         <v>23</v>
@@ -15179,13 +15176,13 @@
         <v>124</v>
       </c>
       <c r="E342" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F342" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G342" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H342">
         <v>3</v>
@@ -15217,13 +15214,13 @@
         <v>120</v>
       </c>
       <c r="E343" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F343" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G343" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H343">
         <v>3</v>
@@ -15255,13 +15252,13 @@
         <v>99</v>
       </c>
       <c r="E344" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F344" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G344" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H344">
         <v>21</v>
@@ -15293,13 +15290,13 @@
         <v>23</v>
       </c>
       <c r="E345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F345" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G345" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H345">
         <v>113</v>
@@ -15331,13 +15328,13 @@
         <v>11</v>
       </c>
       <c r="E346" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F346" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G346" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H346">
         <v>123</v>
@@ -15369,13 +15366,13 @@
         <v>87</v>
       </c>
       <c r="E347" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F347" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G347" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H347">
         <v>14</v>
@@ -15407,13 +15404,13 @@
         <v>57</v>
       </c>
       <c r="E348" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F348" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G348" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H348">
         <v>5</v>
@@ -15445,13 +15442,13 @@
         <v>30</v>
       </c>
       <c r="E349" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F349" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G349" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H349">
         <v>13</v>
@@ -15483,13 +15480,13 @@
         <v>96</v>
       </c>
       <c r="E350" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F350" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G350" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H350">
         <v>14</v>
@@ -15521,13 +15518,13 @@
         <v>69</v>
       </c>
       <c r="E351" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F351" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G351" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H351">
         <v>20</v>
@@ -15559,13 +15556,13 @@
         <v>18</v>
       </c>
       <c r="E352" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F352" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G352" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H352">
         <v>49</v>
@@ -15597,13 +15594,13 @@
         <v>36</v>
       </c>
       <c r="E353" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F353" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G353" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H353">
         <v>26</v>
@@ -15635,13 +15632,13 @@
         <v>5</v>
       </c>
       <c r="E354" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F354" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G354" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H354">
         <v>59</v>
@@ -15673,13 +15670,13 @@
         <v>65</v>
       </c>
       <c r="E355" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F355" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G355" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H355">
         <v>14</v>
@@ -15711,13 +15708,13 @@
         <v>51</v>
       </c>
       <c r="E356" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F356" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G356" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H356">
         <v>14</v>
@@ -15749,13 +15746,13 @@
         <v>33</v>
       </c>
       <c r="E357" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F357" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G357" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H357">
         <v>67</v>
@@ -15787,13 +15784,13 @@
         <v>66</v>
       </c>
       <c r="E358" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F358" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G358" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H358">
         <v>6</v>
@@ -15825,13 +15822,13 @@
         <v>77</v>
       </c>
       <c r="E359" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F359" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G359" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H359">
         <v>2</v>
@@ -15863,13 +15860,13 @@
         <v>76</v>
       </c>
       <c r="E360" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F360" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G360" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H360">
         <v>2</v>
@@ -15901,13 +15898,13 @@
         <v>79</v>
       </c>
       <c r="E361" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F361" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G361" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H361">
         <v>2</v>
@@ -15939,13 +15936,13 @@
         <v>78</v>
       </c>
       <c r="E362" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F362" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G362" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H362">
         <v>2</v>
@@ -15977,13 +15974,13 @@
         <v>96</v>
       </c>
       <c r="E363" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F363" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G363" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H363">
         <v>14</v>
@@ -16015,13 +16012,13 @@
         <v>73</v>
       </c>
       <c r="E364" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F364" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G364" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H364">
         <v>14</v>
@@ -16053,13 +16050,13 @@
         <v>92</v>
       </c>
       <c r="E365" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F365" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G365" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H365">
         <v>7</v>
@@ -16091,13 +16088,13 @@
         <v>117</v>
       </c>
       <c r="E366" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F366" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G366" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H366">
         <v>12</v>
@@ -16129,13 +16126,13 @@
         <v>18</v>
       </c>
       <c r="E367" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F367" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G367" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H367">
         <v>91</v>
@@ -16167,13 +16164,13 @@
         <v>63</v>
       </c>
       <c r="E368" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F368" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G368" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H368">
         <v>15</v>
@@ -16205,13 +16202,13 @@
         <v>35</v>
       </c>
       <c r="E369" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F369" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G369" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H369">
         <v>24</v>
@@ -16243,13 +16240,13 @@
         <v>53</v>
       </c>
       <c r="E370" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F370" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G370" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H370">
         <v>3</v>
@@ -16281,13 +16278,13 @@
         <v>50</v>
       </c>
       <c r="E371" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F371" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G371" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H371">
         <v>16</v>
@@ -16319,13 +16316,13 @@
         <v>73</v>
       </c>
       <c r="E372" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F372" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G372" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H372">
         <v>20</v>
@@ -16357,13 +16354,13 @@
         <v>3</v>
       </c>
       <c r="E373" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F373" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G373" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H373">
         <v>31</v>
@@ -16395,13 +16392,13 @@
         <v>60</v>
       </c>
       <c r="E374" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F374" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G374" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H374">
         <v>20</v>
@@ -16433,13 +16430,13 @@
         <v>52</v>
       </c>
       <c r="E375" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F375" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G375" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H375">
         <v>3</v>
@@ -16471,13 +16468,13 @@
         <v>75</v>
       </c>
       <c r="E376" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F376" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G376" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H376">
         <v>14</v>
@@ -16509,13 +16506,13 @@
         <v>33</v>
       </c>
       <c r="E377" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F377" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G377" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H377">
         <v>28</v>
@@ -16547,13 +16544,13 @@
         <v>61</v>
       </c>
       <c r="E378" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F378" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G378" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H378">
         <v>5</v>
@@ -16585,13 +16582,13 @@
         <v>64</v>
       </c>
       <c r="E379" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F379" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G379" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H379">
         <v>12</v>
@@ -16623,13 +16620,13 @@
         <v>89</v>
       </c>
       <c r="E380" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F380" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G380" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H380">
         <v>8</v>
@@ -16661,13 +16658,13 @@
         <v>90</v>
       </c>
       <c r="E381" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F381" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G381" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H381">
         <v>44</v>
@@ -16699,13 +16696,13 @@
         <v>102</v>
       </c>
       <c r="E382" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F382" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G382" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H382">
         <v>17</v>
@@ -16737,13 +16734,13 @@
         <v>33</v>
       </c>
       <c r="E383" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F383" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G383" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H383">
         <v>4</v>
@@ -16775,13 +16772,13 @@
         <v>72</v>
       </c>
       <c r="E384" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F384" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G384" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H384">
         <v>22</v>
@@ -16813,13 +16810,13 @@
         <v>64</v>
       </c>
       <c r="E385" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F385" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G385" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H385">
         <v>18</v>
@@ -16851,13 +16848,13 @@
         <v>11</v>
       </c>
       <c r="E386" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F386" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G386" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H386">
         <v>55</v>
@@ -16889,13 +16886,13 @@
         <v>19</v>
       </c>
       <c r="E387" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F387" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G387" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H387">
         <v>61</v>
@@ -16927,13 +16924,13 @@
         <v>80</v>
       </c>
       <c r="E388" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F388" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G388" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H388">
         <v>25</v>
@@ -16965,13 +16962,13 @@
         <v>7</v>
       </c>
       <c r="E389" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F389" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G389" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H389">
         <v>20</v>
@@ -17003,13 +17000,13 @@
         <v>23</v>
       </c>
       <c r="E390" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F390" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G390" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H390">
         <v>46</v>
@@ -17041,13 +17038,13 @@
         <v>31</v>
       </c>
       <c r="E391" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F391" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G391" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H391">
         <v>37</v>
@@ -17079,13 +17076,13 @@
         <v>54</v>
       </c>
       <c r="E392" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F392" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G392" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H392">
         <v>2</v>
@@ -17117,13 +17114,13 @@
         <v>26</v>
       </c>
       <c r="E393" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F393" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G393" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H393">
         <v>59</v>
@@ -17155,13 +17152,13 @@
         <v>34</v>
       </c>
       <c r="E394" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F394" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G394" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H394">
         <v>53</v>
@@ -17193,13 +17190,13 @@
         <v>3</v>
       </c>
       <c r="E395" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F395" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H395">
         <v>36</v>
@@ -17231,13 +17228,13 @@
         <v>10</v>
       </c>
       <c r="E396" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F396" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G396" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H396">
         <v>97</v>
@@ -17269,13 +17266,13 @@
         <v>20</v>
       </c>
       <c r="E397" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F397" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G397" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H397">
         <v>17</v>
@@ -17294,23 +17291,26 @@
       </c>
     </row>
     <row r="398" spans="1:12">
+      <c r="A398" t="s">
+        <v>16</v>
+      </c>
       <c r="B398" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C398">
         <v>19</v>
       </c>
       <c r="D398">
-        <v>131</v>
+        <v>-1</v>
       </c>
       <c r="E398" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F398" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G398" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H398">
         <v>45</v>
@@ -17342,13 +17342,13 @@
         <v>63</v>
       </c>
       <c r="E399" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F399" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G399" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H399">
         <v>21</v>
@@ -17380,13 +17380,13 @@
         <v>4</v>
       </c>
       <c r="E400" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F400" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G400" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H400">
         <v>28</v>
@@ -17418,13 +17418,13 @@
         <v>6</v>
       </c>
       <c r="E401" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F401" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G401" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H401">
         <v>53</v>
@@ -17456,13 +17456,13 @@
         <v>14</v>
       </c>
       <c r="E402" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F402" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G402" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H402">
         <v>75</v>
@@ -17494,13 +17494,13 @@
         <v>9</v>
       </c>
       <c r="E403" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F403" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G403" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H403">
         <v>121</v>
@@ -17532,13 +17532,13 @@
         <v>51</v>
       </c>
       <c r="E404" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F404" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G404" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H404">
         <v>33</v>
@@ -17570,13 +17570,13 @@
         <v>35</v>
       </c>
       <c r="E405" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F405" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G405" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H405">
         <v>61</v>
@@ -17608,13 +17608,13 @@
         <v>102</v>
       </c>
       <c r="E406" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F406" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G406" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H406">
         <v>3</v>
@@ -17646,13 +17646,13 @@
         <v>101</v>
       </c>
       <c r="E407" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F407" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G407" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H407">
         <v>4</v>
@@ -17684,13 +17684,13 @@
         <v>4</v>
       </c>
       <c r="E408" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F408" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G408" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H408">
         <v>140</v>
@@ -17722,13 +17722,13 @@
         <v>6</v>
       </c>
       <c r="E409" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F409" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G409" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H409">
         <v>61</v>
@@ -17760,13 +17760,13 @@
         <v>89</v>
       </c>
       <c r="E410" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F410" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G410" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -17798,13 +17798,13 @@
         <v>24</v>
       </c>
       <c r="E411" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F411" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G411" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H411">
         <v>45</v>
@@ -17836,13 +17836,13 @@
         <v>106</v>
       </c>
       <c r="E412" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F412" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G412" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H412">
         <v>7</v>
@@ -17874,13 +17874,13 @@
         <v>4</v>
       </c>
       <c r="E413" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F413" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G413" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H413">
         <v>93</v>
@@ -17912,13 +17912,13 @@
         <v>25</v>
       </c>
       <c r="E414" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F414" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G414" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H414">
         <v>14</v>
@@ -17950,13 +17950,13 @@
         <v>52</v>
       </c>
       <c r="E415" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F415" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G415" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H415">
         <v>18</v>
@@ -17988,13 +17988,13 @@
         <v>7</v>
       </c>
       <c r="E416" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F416" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G416" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H416">
         <v>118</v>
@@ -18026,13 +18026,13 @@
         <v>59</v>
       </c>
       <c r="E417" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F417" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G417" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H417">
         <v>2</v>
@@ -18064,13 +18064,13 @@
         <v>8</v>
       </c>
       <c r="E418" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F418" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G418" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H418">
         <v>97</v>
@@ -18102,13 +18102,13 @@
         <v>32</v>
       </c>
       <c r="E419" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F419" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G419" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H419">
         <v>68</v>
@@ -18140,13 +18140,13 @@
         <v>21</v>
       </c>
       <c r="E420" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F420" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G420" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H420">
         <v>10</v>
@@ -18178,13 +18178,13 @@
         <v>77</v>
       </c>
       <c r="E421" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F421" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G421" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H421">
         <v>41</v>
@@ -18216,13 +18216,13 @@
         <v>104</v>
       </c>
       <c r="E422" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F422" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G422" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H422">
         <v>14</v>
@@ -18254,13 +18254,13 @@
         <v>115</v>
       </c>
       <c r="E423" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F423" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G423" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H423">
         <v>14</v>
@@ -18292,13 +18292,13 @@
         <v>73</v>
       </c>
       <c r="E424" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F424" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G424" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H424">
         <v>13</v>
@@ -18330,13 +18330,13 @@
         <v>3</v>
       </c>
       <c r="E425" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F425" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G425" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H425">
         <v>85</v>
@@ -18368,13 +18368,13 @@
         <v>49</v>
       </c>
       <c r="E426" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F426" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G426" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H426">
         <v>54</v>
@@ -18406,13 +18406,13 @@
         <v>45</v>
       </c>
       <c r="E427" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F427" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G427" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H427">
         <v>65</v>
@@ -18444,13 +18444,13 @@
         <v>27</v>
       </c>
       <c r="E428" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F428" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G428" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H428">
         <v>60</v>
@@ -18482,13 +18482,13 @@
         <v>22</v>
       </c>
       <c r="E429" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F429" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G429" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H429">
         <v>28</v>
@@ -18520,13 +18520,13 @@
         <v>105</v>
       </c>
       <c r="E430" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F430" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G430" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H430">
         <v>15</v>
@@ -18558,13 +18558,13 @@
         <v>76</v>
       </c>
       <c r="E431" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F431" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G431" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H431">
         <v>1</v>
@@ -18596,13 +18596,13 @@
         <v>32</v>
       </c>
       <c r="E432" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F432" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G432" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H432">
         <v>77</v>
@@ -18634,13 +18634,13 @@
         <v>71</v>
       </c>
       <c r="E433" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F433" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G433" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H433">
         <v>1</v>
@@ -18672,13 +18672,13 @@
         <v>75</v>
       </c>
       <c r="E434" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F434" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G434" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H434">
         <v>15</v>
@@ -18710,13 +18710,13 @@
         <v>26</v>
       </c>
       <c r="E435" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F435" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G435" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H435">
         <v>16</v>
@@ -18748,13 +18748,13 @@
         <v>43</v>
       </c>
       <c r="E436" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F436" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G436" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H436">
         <v>3</v>
@@ -18786,13 +18786,13 @@
         <v>3</v>
       </c>
       <c r="E437" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F437" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G437" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H437">
         <v>96</v>
@@ -18824,13 +18824,13 @@
         <v>28</v>
       </c>
       <c r="E438" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F438" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G438" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H438">
         <v>6</v>
@@ -18862,13 +18862,13 @@
         <v>79</v>
       </c>
       <c r="E439" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F439" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G439" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H439">
         <v>21</v>
@@ -18900,13 +18900,13 @@
         <v>73</v>
       </c>
       <c r="E440" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F440" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G440" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H440">
         <v>14</v>
@@ -18938,13 +18938,13 @@
         <v>31</v>
       </c>
       <c r="E441" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F441" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G441" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H441">
         <v>21</v>
@@ -18976,13 +18976,13 @@
         <v>97</v>
       </c>
       <c r="E442" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F442" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G442" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H442">
         <v>14</v>
@@ -19014,13 +19014,13 @@
         <v>45</v>
       </c>
       <c r="E443" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F443" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G443" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H443">
         <v>57</v>
@@ -19052,13 +19052,13 @@
         <v>37</v>
       </c>
       <c r="E444" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F444" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G444" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H444">
         <v>26</v>
@@ -19090,13 +19090,13 @@
         <v>81</v>
       </c>
       <c r="E445" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F445" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G445" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H445">
         <v>10</v>
@@ -19128,13 +19128,13 @@
         <v>7</v>
       </c>
       <c r="E446" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F446" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G446" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H446">
         <v>64</v>
@@ -19166,13 +19166,13 @@
         <v>62</v>
       </c>
       <c r="E447" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F447" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G447" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H447">
         <v>38</v>
@@ -19204,13 +19204,13 @@
         <v>82</v>
       </c>
       <c r="E448" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F448" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G448" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H448">
         <v>14</v>
@@ -19242,13 +19242,13 @@
         <v>90</v>
       </c>
       <c r="E449" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F449" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G449" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H449">
         <v>10</v>
@@ -19280,13 +19280,13 @@
         <v>13</v>
       </c>
       <c r="E450" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F450" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G450" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H450">
         <v>14</v>

--- a/box.xlsx
+++ b/box.xlsx
@@ -2335,73 +2335,73 @@
     <t>2017-09-22</t>
   </si>
   <si>
+    <t>2017-05-12</t>
+  </si>
+  <si>
+    <t>2017-07-07</t>
+  </si>
+  <si>
+    <t>2017-08-24</t>
+  </si>
+  <si>
+    <t>2016-11-18</t>
+  </si>
+  <si>
+    <t>2017-04-19</t>
+  </si>
+  <si>
+    <t>2017-08-04</t>
+  </si>
+  <si>
+    <t>2016-11-12</t>
+  </si>
+  <si>
+    <t>2016-12-02</t>
+  </si>
+  <si>
+    <t>2017-04-14</t>
+  </si>
+  <si>
+    <t>2017-06-23</t>
+  </si>
+  <si>
+    <t>2017-04-24</t>
+  </si>
+  <si>
+    <t>2016-12-30</t>
+  </si>
+  <si>
+    <t>2017-06-09</t>
+  </si>
+  <si>
+    <t>2017-09-18</t>
+  </si>
+  <si>
+    <t>2017-07-24</t>
+  </si>
+  <si>
+    <t>2017-05-26</t>
+  </si>
+  <si>
+    <t>2017-09-28</t>
+  </si>
+  <si>
+    <t>2017-03-12</t>
+  </si>
+  <si>
+    <t>2017-06-06</t>
+  </si>
+  <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
+    <t>2017-06-10</t>
+  </si>
+  <si>
+    <t>2016-12-26</t>
+  </si>
+  <si>
     <t>2017-08-28</t>
-  </si>
-  <si>
-    <t>2017-05-12</t>
-  </si>
-  <si>
-    <t>2017-07-07</t>
-  </si>
-  <si>
-    <t>2017-08-24</t>
-  </si>
-  <si>
-    <t>2016-11-18</t>
-  </si>
-  <si>
-    <t>2017-04-19</t>
-  </si>
-  <si>
-    <t>2017-08-04</t>
-  </si>
-  <si>
-    <t>2016-11-12</t>
-  </si>
-  <si>
-    <t>2016-12-02</t>
-  </si>
-  <si>
-    <t>2017-04-14</t>
-  </si>
-  <si>
-    <t>2017-06-23</t>
-  </si>
-  <si>
-    <t>2017-04-24</t>
-  </si>
-  <si>
-    <t>2016-12-30</t>
-  </si>
-  <si>
-    <t>2017-06-09</t>
-  </si>
-  <si>
-    <t>2017-09-18</t>
-  </si>
-  <si>
-    <t>2017-07-24</t>
-  </si>
-  <si>
-    <t>2017-05-26</t>
-  </si>
-  <si>
-    <t>2017-09-28</t>
-  </si>
-  <si>
-    <t>2017-03-12</t>
-  </si>
-  <si>
-    <t>2017-06-06</t>
-  </si>
-  <si>
-    <t>2017-03-20</t>
-  </si>
-  <si>
-    <t>2017-06-10</t>
-  </si>
-  <si>
-    <t>2016-12-26</t>
   </si>
   <si>
     <t>2016-12-19</t>
@@ -7823,16 +7823,16 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C132">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D132">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
@@ -7841,22 +7841,22 @@
         <v>211</v>
       </c>
       <c r="G132" t="s">
-        <v>773</v>
+        <v>726</v>
       </c>
       <c r="H132">
+        <v>56</v>
+      </c>
+      <c r="I132">
         <v>39</v>
       </c>
-      <c r="I132">
-        <v>38</v>
-      </c>
       <c r="J132">
-        <v>27774</v>
+        <v>28000</v>
       </c>
       <c r="K132">
-        <v>6394779</v>
+        <v>6445649</v>
       </c>
       <c r="L132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7917,7 +7917,7 @@
         <v>213</v>
       </c>
       <c r="G134" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H134">
         <v>91</v>
@@ -8069,7 +8069,7 @@
         <v>217</v>
       </c>
       <c r="G138" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H138">
         <v>64</v>
@@ -8183,7 +8183,7 @@
         <v>220</v>
       </c>
       <c r="G141" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H141">
         <v>36</v>
@@ -8221,7 +8221,7 @@
         <v>221</v>
       </c>
       <c r="G142" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H142">
         <v>71</v>
@@ -8449,7 +8449,7 @@
         <v>227</v>
       </c>
       <c r="G148" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H148">
         <v>54</v>
@@ -8525,7 +8525,7 @@
         <v>229</v>
       </c>
       <c r="G150" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H150">
         <v>81</v>
@@ -8715,7 +8715,7 @@
         <v>234</v>
       </c>
       <c r="G155" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H155">
         <v>45</v>
@@ -8829,7 +8829,7 @@
         <v>237</v>
       </c>
       <c r="G158" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H158">
         <v>57</v>
@@ -8943,7 +8943,7 @@
         <v>240</v>
       </c>
       <c r="G161" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H161">
         <v>49</v>
@@ -8981,7 +8981,7 @@
         <v>241</v>
       </c>
       <c r="G162" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H162">
         <v>38</v>
@@ -9171,7 +9171,7 @@
         <v>246</v>
       </c>
       <c r="G167" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H167">
         <v>73</v>
@@ -9209,7 +9209,7 @@
         <v>247</v>
       </c>
       <c r="G168" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H168">
         <v>35</v>
@@ -9589,7 +9589,7 @@
         <v>257</v>
       </c>
       <c r="G178" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H178">
         <v>70</v>
@@ -9665,7 +9665,7 @@
         <v>259</v>
       </c>
       <c r="G180" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H180">
         <v>40</v>
@@ -9703,7 +9703,7 @@
         <v>260</v>
       </c>
       <c r="G181" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H181">
         <v>49</v>
@@ -9817,7 +9817,7 @@
         <v>263</v>
       </c>
       <c r="G184" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H184">
         <v>32</v>
@@ -9855,7 +9855,7 @@
         <v>264</v>
       </c>
       <c r="G185" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H185">
         <v>28</v>
@@ -10007,7 +10007,7 @@
         <v>268</v>
       </c>
       <c r="G189" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H189">
         <v>39</v>
@@ -10311,7 +10311,7 @@
         <v>276</v>
       </c>
       <c r="G197" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H197">
         <v>47</v>
@@ -10349,7 +10349,7 @@
         <v>277</v>
       </c>
       <c r="G198" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H198">
         <v>37</v>
@@ -10539,7 +10539,7 @@
         <v>282</v>
       </c>
       <c r="G203" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H203">
         <v>45</v>
@@ -10729,7 +10729,7 @@
         <v>287</v>
       </c>
       <c r="G208" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H208">
         <v>42</v>
@@ -10767,7 +10767,7 @@
         <v>288</v>
       </c>
       <c r="G209" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H209">
         <v>38</v>
@@ -10843,7 +10843,7 @@
         <v>290</v>
       </c>
       <c r="G211" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H211">
         <v>60</v>
@@ -10995,7 +10995,7 @@
         <v>294</v>
       </c>
       <c r="G215" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H215">
         <v>36</v>
@@ -11261,7 +11261,7 @@
         <v>301</v>
       </c>
       <c r="G222" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H222">
         <v>44</v>
@@ -11451,7 +11451,7 @@
         <v>306</v>
       </c>
       <c r="G227" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H227">
         <v>59</v>
@@ -11489,7 +11489,7 @@
         <v>307</v>
       </c>
       <c r="G228" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H228">
         <v>29</v>
@@ -11603,7 +11603,7 @@
         <v>310</v>
       </c>
       <c r="G231" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H231">
         <v>28</v>
@@ -11641,7 +11641,7 @@
         <v>311</v>
       </c>
       <c r="G232" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H232">
         <v>55</v>
@@ -11755,7 +11755,7 @@
         <v>314</v>
       </c>
       <c r="G235" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H235">
         <v>21</v>
@@ -11831,7 +11831,7 @@
         <v>316</v>
       </c>
       <c r="G237" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H237">
         <v>52</v>
@@ -12021,7 +12021,7 @@
         <v>321</v>
       </c>
       <c r="G242" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H242">
         <v>27</v>
@@ -12249,7 +12249,7 @@
         <v>327</v>
       </c>
       <c r="G248" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H248">
         <v>16</v>
@@ -12439,7 +12439,7 @@
         <v>332</v>
       </c>
       <c r="G253" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H253">
         <v>34</v>
@@ -12515,7 +12515,7 @@
         <v>334</v>
       </c>
       <c r="G255" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H255">
         <v>29</v>
@@ -12553,7 +12553,7 @@
         <v>335</v>
       </c>
       <c r="G256" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H256">
         <v>38</v>
@@ -12743,7 +12743,7 @@
         <v>340</v>
       </c>
       <c r="G261" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H261">
         <v>5</v>
@@ -12819,7 +12819,7 @@
         <v>342</v>
       </c>
       <c r="G263" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H263">
         <v>13</v>
@@ -12857,7 +12857,7 @@
         <v>343</v>
       </c>
       <c r="G264" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H264">
         <v>29</v>
@@ -13123,7 +13123,7 @@
         <v>350</v>
       </c>
       <c r="G271" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H271">
         <v>38</v>
@@ -13275,7 +13275,7 @@
         <v>354</v>
       </c>
       <c r="G275" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H275">
         <v>49</v>
@@ -13579,7 +13579,7 @@
         <v>362</v>
       </c>
       <c r="G283" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H283">
         <v>27</v>
@@ -13693,7 +13693,7 @@
         <v>365</v>
       </c>
       <c r="G286" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H286">
         <v>50</v>
@@ -13807,7 +13807,7 @@
         <v>368</v>
       </c>
       <c r="G289" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H289">
         <v>31</v>
@@ -13883,7 +13883,7 @@
         <v>370</v>
       </c>
       <c r="G291" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H291">
         <v>21</v>
@@ -13921,7 +13921,7 @@
         <v>371</v>
       </c>
       <c r="G292" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H292">
         <v>25</v>
@@ -13959,7 +13959,7 @@
         <v>372</v>
       </c>
       <c r="G293" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H293">
         <v>34</v>
@@ -14073,7 +14073,7 @@
         <v>375</v>
       </c>
       <c r="G296" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H296">
         <v>88</v>
@@ -14187,7 +14187,7 @@
         <v>378</v>
       </c>
       <c r="G299" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H299">
         <v>50</v>
@@ -14301,7 +14301,7 @@
         <v>381</v>
       </c>
       <c r="G302" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H302">
         <v>29</v>
@@ -14491,7 +14491,7 @@
         <v>386</v>
       </c>
       <c r="G307" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H307">
         <v>21</v>
@@ -14529,7 +14529,7 @@
         <v>387</v>
       </c>
       <c r="G308" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H308">
         <v>25</v>
@@ -14719,7 +14719,7 @@
         <v>392</v>
       </c>
       <c r="G313" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H313">
         <v>27</v>
@@ -14833,7 +14833,7 @@
         <v>395</v>
       </c>
       <c r="G316" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H316">
         <v>24</v>
@@ -15023,7 +15023,7 @@
         <v>400</v>
       </c>
       <c r="G321" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H321">
         <v>14</v>
@@ -15175,7 +15175,7 @@
         <v>404</v>
       </c>
       <c r="G325" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H325">
         <v>42</v>
@@ -15213,7 +15213,7 @@
         <v>405</v>
       </c>
       <c r="G326" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H326">
         <v>36</v>
@@ -15479,7 +15479,7 @@
         <v>412</v>
       </c>
       <c r="G333" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H333">
         <v>22</v>
@@ -15707,7 +15707,7 @@
         <v>418</v>
       </c>
       <c r="G339" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H339">
         <v>22</v>
@@ -15783,7 +15783,7 @@
         <v>420</v>
       </c>
       <c r="G341" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H341">
         <v>14</v>
@@ -15973,7 +15973,7 @@
         <v>425</v>
       </c>
       <c r="G346" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H346">
         <v>14</v>
@@ -16125,7 +16125,7 @@
         <v>429</v>
       </c>
       <c r="G350" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H350">
         <v>21</v>
@@ -16201,7 +16201,7 @@
         <v>431</v>
       </c>
       <c r="G352" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H352">
         <v>35</v>
@@ -16239,7 +16239,7 @@
         <v>432</v>
       </c>
       <c r="G353" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H353">
         <v>22</v>
@@ -16619,7 +16619,7 @@
         <v>442</v>
       </c>
       <c r="G363" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H363">
         <v>20</v>
@@ -16657,7 +16657,7 @@
         <v>443</v>
       </c>
       <c r="G364" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H364">
         <v>15</v>
@@ -16733,7 +16733,7 @@
         <v>445</v>
       </c>
       <c r="G366" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H366">
         <v>16</v>
@@ -17303,7 +17303,7 @@
         <v>460</v>
       </c>
       <c r="G381" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H381">
         <v>18</v>
@@ -17493,7 +17493,7 @@
         <v>465</v>
       </c>
       <c r="G386" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H386">
         <v>42</v>
@@ -17683,7 +17683,7 @@
         <v>470</v>
       </c>
       <c r="G391" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H391">
         <v>14</v>
@@ -17797,7 +17797,7 @@
         <v>473</v>
       </c>
       <c r="G394" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H394">
         <v>14</v>
@@ -17835,7 +17835,7 @@
         <v>474</v>
       </c>
       <c r="G395" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H395">
         <v>13</v>
@@ -17949,7 +17949,7 @@
         <v>477</v>
       </c>
       <c r="G398" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H398">
         <v>25</v>
@@ -17987,7 +17987,7 @@
         <v>478</v>
       </c>
       <c r="G399" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H399">
         <v>17</v>
@@ -18177,7 +18177,7 @@
         <v>483</v>
       </c>
       <c r="G404" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H404">
         <v>14</v>
@@ -18367,7 +18367,7 @@
         <v>488</v>
       </c>
       <c r="G409" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H409">
         <v>17</v>
@@ -18443,7 +18443,7 @@
         <v>490</v>
       </c>
       <c r="G411" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H411">
         <v>14</v>
@@ -18557,7 +18557,7 @@
         <v>493</v>
       </c>
       <c r="G414" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H414">
         <v>14</v>
@@ -18633,7 +18633,7 @@
         <v>495</v>
       </c>
       <c r="G416" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H416">
         <v>15</v>
@@ -19051,7 +19051,7 @@
         <v>506</v>
       </c>
       <c r="G427" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H427">
         <v>4</v>
@@ -19203,7 +19203,7 @@
         <v>510</v>
       </c>
       <c r="G431" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H431">
         <v>14</v>
@@ -19355,7 +19355,7 @@
         <v>514</v>
       </c>
       <c r="G435" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H435">
         <v>18</v>
@@ -19431,7 +19431,7 @@
         <v>516</v>
       </c>
       <c r="G437" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H437">
         <v>14</v>
@@ -19583,7 +19583,7 @@
         <v>520</v>
       </c>
       <c r="G441" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H441">
         <v>14</v>
@@ -19811,7 +19811,7 @@
         <v>526</v>
       </c>
       <c r="G447" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H447">
         <v>14</v>
@@ -20533,7 +20533,7 @@
         <v>545</v>
       </c>
       <c r="G466" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H466">
         <v>11</v>
@@ -20837,7 +20837,7 @@
         <v>553</v>
       </c>
       <c r="G474" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H474">
         <v>14</v>
@@ -20989,7 +20989,7 @@
         <v>557</v>
       </c>
       <c r="G478" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H478">
         <v>12</v>
@@ -21065,7 +21065,7 @@
         <v>559</v>
       </c>
       <c r="G480" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="H480">
         <v>9</v>
@@ -21179,7 +21179,7 @@
         <v>562</v>
       </c>
       <c r="G483" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H483">
         <v>18</v>
@@ -21559,7 +21559,7 @@
         <v>572</v>
       </c>
       <c r="G493" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H493">
         <v>14</v>
@@ -21673,7 +21673,7 @@
         <v>575</v>
       </c>
       <c r="G496" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H496">
         <v>23</v>
@@ -21711,7 +21711,7 @@
         <v>576</v>
       </c>
       <c r="G497" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H497">
         <v>7</v>
@@ -21787,7 +21787,7 @@
         <v>578</v>
       </c>
       <c r="G499" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H499">
         <v>14</v>
@@ -22015,7 +22015,7 @@
         <v>584</v>
       </c>
       <c r="G505" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H505">
         <v>12</v>
@@ -22509,7 +22509,7 @@
         <v>597</v>
       </c>
       <c r="G518" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H518">
         <v>13</v>
@@ -23041,7 +23041,7 @@
         <v>611</v>
       </c>
       <c r="G532" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H532">
         <v>21</v>
@@ -24029,7 +24029,7 @@
         <v>637</v>
       </c>
       <c r="G558" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H558">
         <v>3</v>
@@ -24067,7 +24067,7 @@
         <v>638</v>
       </c>
       <c r="G559" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H559">
         <v>3</v>
@@ -24181,7 +24181,7 @@
         <v>641</v>
       </c>
       <c r="G562" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H562">
         <v>12</v>
@@ -24409,7 +24409,7 @@
         <v>647</v>
       </c>
       <c r="G568" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H568">
         <v>7</v>
@@ -24561,7 +24561,7 @@
         <v>651</v>
       </c>
       <c r="G572" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H572">
         <v>2</v>
@@ -24675,7 +24675,7 @@
         <v>654</v>
       </c>
       <c r="G575" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H575">
         <v>5</v>
@@ -24827,7 +24827,7 @@
         <v>658</v>
       </c>
       <c r="G579" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H579">
         <v>2</v>
@@ -25131,7 +25131,7 @@
         <v>666</v>
       </c>
       <c r="G587" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H587">
         <v>5</v>
@@ -25207,7 +25207,7 @@
         <v>668</v>
       </c>
       <c r="G589" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H589">
         <v>2</v>
@@ -25245,7 +25245,7 @@
         <v>669</v>
       </c>
       <c r="G590" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H590">
         <v>4</v>
@@ -25321,7 +25321,7 @@
         <v>671</v>
       </c>
       <c r="G592" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H592">
         <v>4</v>
@@ -25397,7 +25397,7 @@
         <v>673</v>
       </c>
       <c r="G594" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H594">
         <v>3</v>
@@ -25625,7 +25625,7 @@
         <v>679</v>
       </c>
       <c r="G600" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H600">
         <v>3</v>
@@ -25663,7 +25663,7 @@
         <v>680</v>
       </c>
       <c r="G601" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H601">
         <v>3</v>
@@ -26233,7 +26233,7 @@
         <v>695</v>
       </c>
       <c r="G616" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H616">
         <v>3</v>
